--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Trainer.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Trainer.xlsx
@@ -128,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,11 +136,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -151,11 +180,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,16 +486,16 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="19" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="38.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="8" customWidth="1"/>
+    <col min="5" max="19" width="8.88671875" style="4"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -476,7 +509,7 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -490,7 +523,7 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -504,7 +537,7 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>456</v>
       </c>
     </row>

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Trainer.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Trainer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,32 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Added from my side</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>trainerName</t>
   </si>
@@ -51,12 +27,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Pravek Saxena</t>
-  </si>
-  <si>
-    <t>Founder</t>
-  </si>
-  <si>
     <t>trainerId</t>
   </si>
   <si>
@@ -64,6 +34,9 @@
   </si>
   <si>
     <t>Any (Except Integer)</t>
+  </si>
+  <si>
+    <t>Any</t>
   </si>
 </sst>
 </file>
@@ -96,10 +69,11 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -128,21 +102,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -155,11 +120,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -171,23 +140,31 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,6 +172,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -483,69 +468,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="8" customWidth="1"/>
-    <col min="5" max="19" width="8.88671875" style="4"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
